--- a/medicine/Pharmacie/Jean_Neuhaus/Jean_Neuhaus.xlsx
+++ b/medicine/Pharmacie/Jean_Neuhaus/Jean_Neuhaus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Neuhaus, né le 5 avril 1812 à Lützelflüh et mort le 11 août 1892 à Schaerbeek est un pharmacien et confiseur suisse[1].
-Il est le fondateur de la chocolaterie Neuhaus, à l'époque une pharmacie-confiserie[2].  Il est le père de Frederic Neuhaus et le grand-père de Jean Neuhaus Junior[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Neuhaus, né le 5 avril 1812 à Lützelflüh et mort le 11 août 1892 à Schaerbeek est un pharmacien et confiseur suisse.
+Il est le fondateur de la chocolaterie Neuhaus, à l'époque une pharmacie-confiserie.  Il est le père de Frederic Neuhaus et le grand-père de Jean Neuhaus Junior.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille de Jean Neuhaus est d'origine italienne et à son arrivée en Suisse, la famille de Jean a changé son nom de Casanova en Neuhaus. Arrivée en Belgique, Jean Neuhaus fonde sa pharmacie en 1857 à Bruxelles dans la galerie de la Reine des galeries royales Saint-Hubert, où il vend à l'origine des confiseries pharmaceutiques (bonbons contre la toux, réglisse contre les maux d'estomac, guimauves...)[4]. Il s'associe dans un premier temps avec son beau-frère puis, après le décès de celui-ci, avec son fils Frederic Neuhaus qui le pousse à utiliser du chocolat dans ces confiseries[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille de Jean Neuhaus est d'origine italienne et à son arrivée en Suisse, la famille de Jean a changé son nom de Casanova en Neuhaus. Arrivée en Belgique, Jean Neuhaus fonde sa pharmacie en 1857 à Bruxelles dans la galerie de la Reine des galeries royales Saint-Hubert, où il vend à l'origine des confiseries pharmaceutiques (bonbons contre la toux, réglisse contre les maux d'estomac, guimauves...). Il s'associe dans un premier temps avec son beau-frère puis, après le décès de celui-ci, avec son fils Frederic Neuhaus qui le pousse à utiliser du chocolat dans ces confiseries.
 C'est son petit-fils Jean Neuhaus Junior qui inventa la praline belge.
 </t>
         </is>
